--- a/data/case1/14/cost_2.xlsx
+++ b/data/case1/14/cost_2.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.07953366385408</v>
+        <v>161.07865732641275</v>
       </c>
       <c r="B1" s="0">
-        <v>6.21659952859277</v>
+        <v>6.1269586177922779</v>
       </c>
       <c r="C1" s="0">
-        <v>1.2898238747553816</v>
+        <v>1.4500978473581214</v>
       </c>
     </row>
   </sheetData>
